--- a/batch_update_file_preparation/institute_url_set_FORWARDS.xlsx
+++ b/batch_update_file_preparation/institute_url_set_FORWARDS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\British Library\bl github group\bl_github_clones\idp-data-issues\batch_update_file_preparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295B0EB9-CD8F-44F2-BB8F-E49DCAA24E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A44E7C7-C606-4F15-8403-16CF6123BF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8316" yWindow="5760" windowWidth="17328" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8664" yWindow="6108" windowWidth="17328" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="institue_url_changes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Institute id</t>
   </si>
@@ -31,48 +31,27 @@
     <t>AKU</t>
   </si>
   <si>
-    <t>Dr. Lilla Russell-Smith, Kuratorin für Zentralasiatische Kunst, Museum für Asiatische Kunst, Kunstsammlung Süd-, Südost- und Zentralasien, Staatliche Museen zu Berlin - Preußischer Kulturbesitz, Takustr 40, 14195 Berlin; Fon: +49 30 8301-364; Fax: +49 30 8301-502; l.russell-smith@smb.spk-berlin.de; www.smb.museum</t>
-  </si>
-  <si>
     <t>AS</t>
   </si>
   <si>
-    <t>Fu Ssu-nien Library&lt;br&gt; Institute of History and Philology&lt;br&gt; Academia Sinica&lt;br&gt; Nan-Kang Taipei 11529&lt;br&gt; Taiwan&lt;br&gt; &lt;a href="http://lib.ihp.sinica.edu.tw/" target="_blank"&gt;Library website&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>BBAW</t>
   </si>
   <si>
-    <t>Depositum der BERLIN-BRANDENBURGISCHEN AKADEMIE DER WISSENSCHAFTEN in der STAATSBIBLIOTHEK ZU BERLIN - Preussischer Kulturbesitz, Orientabteilung &lt;p&gt;Potsdamer Strasse 33 10785 Berlin; Briefe: 10772 BERLIN; Pakete: Tiergarten Potsdamer Strasse 33 10785 Berlin; Telefon: +049-30-266-435806 oder 266-0; Telefax: +49-30-266-439956; E-mail: orientabt@sbb.spk-berlin.de&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>BL</t>
   </si>
   <si>
-    <t>96 Euston Road&lt;br&gt; London NW1 2DB, UK&lt;br&gt; tel: +44 (0)20 7412 7000&lt;br&gt; &lt;a href="http://www.bl.uk" target="_blank"&gt;website&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>BM</t>
   </si>
   <si>
-    <t>Great Russell Street&lt;br&gt;London WC1B 3DG, UK&lt;br&gt; tel: +44 (0)20 7323 8000&lt;br&gt;&lt;a href="http://www.britishmuseum.org" target="_blank"&gt;website&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>BNF</t>
   </si>
   <si>
-    <t>58, rue de Richelieu &lt;br&gt;75002 Paris &lt;br&gt;France &lt;br&gt;+33 (0)1 53 79 59 59 &lt;br&gt;&lt;a href="http://www.bnf.fr"&gt;http://www.bnf.fr&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>CAM</t>
   </si>
   <si>
     <t>CBL</t>
   </si>
   <si>
-    <t>Dublin Castle Dublin 2, Ireland&lt;BR&gt;&lt;a href="http://www.cbl.ie" target="_blank"&gt;website&lt;/a&gt;&lt;br&gt;Director: &lt;a href="mailto:mryan@cbl.ie"&gt;Dr Michael Ryan&lt;/a&gt;&lt;br&gt;Curator of the East Asian Collections: &lt;a href="mailto:smccausland@cbl.ie"&gt;Shane MacCausland&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>CFM</t>
   </si>
   <si>
@@ -88,18 +67,12 @@
     <t>FR</t>
   </si>
   <si>
-    <t>Jefferson Drive at 12th St. SW&lt;br&gt; Washington DC 20650-0707 USA&lt;br&gt; &lt;a href="http://www.asia.si.edu" target="_blank"&gt;Institute website&lt;/a&gt;&lt;br&gt; &lt;a href="mailto:joseph.chang@asia.si.edu"&gt;Joseph Chang&lt;/a&gt;&lt;br&gt; &lt;a href="mailto:Stephen.Allee@asia.si.edu"&gt;Stephen Allee&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>GSBWG</t>
   </si>
   <si>
     <t>HKU</t>
   </si>
   <si>
-    <t>University of Hong Kong &lt;br&gt;94 Bonham Road &lt;br&gt;Pokfulam &lt;br&gt;Hong Kong &lt;br&gt;&lt;a href="http://www.hku.hk/hkumag" target="_blank"&gt;www.hku.hk/hkumag&lt;/a&gt; email: &lt;a href="mailto:ayfwonga@hkucc.hku.hk"&gt;Anita WONG Yin-fong&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>IMIA</t>
   </si>
   <si>
@@ -112,25 +85,15 @@
     <t>KGL</t>
   </si>
   <si>
-    <t>Søren Kierkegaards Plads 1 -&lt;br&gt;København K, Denmark. &lt;br&gt;Tel: +45 3347 4887 &lt;br&gt;Fax: +45 3393 2218 &lt;br&gt;Email: blp@kb.dk &lt;br&gt;Website: &lt;a href="http://www.kb.dk"&gt;http://www.kb.dk&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>KTWWS</t>
   </si>
   <si>
     <t>LHAS</t>
   </si>
   <si>
-    <t>&lt;a href="mailto:keleti@konyvtar.mta.hu"&gt;Agnes Kelecsényi&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>LL</t>
   </si>
   <si>
-    <t>Private collection.</t>
-  </si>
-  <si>
     <t>LYS</t>
   </si>
   <si>
@@ -143,69 +106,42 @@
     <t>MG</t>
   </si>
   <si>
-    <t>6, place d'Iéna &lt;br&gt;75016 Paris &lt;br&gt;France &lt;br&gt;+33 (0)1 56 52 53 00</t>
-  </si>
-  <si>
     <t>MIHO</t>
   </si>
   <si>
     <t>NLC</t>
   </si>
   <si>
-    <t>33 Zhongguancun Nandajie&lt;br&gt; Haidian district&lt;br&gt; Beijing 100081&lt;br&gt; People's Republic of China&lt;br&gt; Tel: +86 (0)10 8854 4114&lt;br&gt; &lt;a href="http://www.nlc.gov.cn/GB/channel1/index.html" target="_blank"&gt;website&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>NMI</t>
   </si>
   <si>
     <t>NRI</t>
   </si>
   <si>
-    <t>Needham Research Institute &lt;br&gt;8 Sylvester Road &lt;br&gt;Cambridge CB3 9AF &lt;br&gt;&lt;a href="http://www.nri.org.uk" target="_blank"&gt;www.nri.org.uk &lt;br&gt;+44 (0) 1223 311545</t>
-  </si>
-  <si>
     <t>OXB</t>
   </si>
   <si>
     <t>PEAL</t>
   </si>
   <si>
-    <t>&lt;br&gt;East Asian Library &lt;br&gt;33 Frist Campus Center &lt;br&gt;Room 317 &lt;br&gt;Princeton University &lt;br&gt;Princeton, NJ 08544 &lt;br&gt;USA &lt;br&gt;Tel: +1 (609) 258-3182 &lt;br&gt;Fax: +1(609) 258-4573 &lt;br&gt;&lt;a href="http://http://eastasianlib.princeton.edu/index.htm" target="_blank"&gt;http://eastasianlib.princeton.edu/index.htm&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>PM</t>
   </si>
   <si>
-    <t>225 Madison Avenue&lt;br&gt;New York&lt;br&gt;NY 10016-2305 USA&lt;br&gt;Website: &lt;a href="http://www.themorgan.org" target="_blank"&gt;www.themorgan.org&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>PMA</t>
   </si>
   <si>
     <t>PUAM</t>
   </si>
   <si>
-    <t>See &lt;a href="www.princetonartmuseum.org/" target="_blank"&gt;the Museum website&lt;/a&gt; for details.</t>
-  </si>
-  <si>
     <t>RIKS</t>
   </si>
   <si>
-    <t>Korea University, Anam-dong Seongbuk-gu, Seoul&lt;br&gt; 136-701, KOREA&lt;br&gt; Phone: +82-2-3290-2494&lt;br&gt; Fax:+82-2-3290-2596</t>
-  </si>
-  <si>
     <t>RO</t>
   </si>
   <si>
-    <t>125-1 Daiku-cho, Shichijo-dori Omiya Higashi-iru,&lt;br&gt; Shimogyo-ku, Kyoto, JAPAN&lt;br&gt; 600-8268&lt;br&gt; tel: +81-75-343-3318&lt;br&gt; fax: +81-75-344-0345&lt;br&gt; &lt;a href="http://opac.lib.ryukoku.ac.jp/web/index.htm"&gt;website&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
-    <t>15D Clifford Street, London W1S 4JZ &lt;a href="http://www.samfogg.com" target="_blank"&gt;website&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>SH</t>
   </si>
   <si>
@@ -221,30 +157,15 @@
     <t>TNCL</t>
   </si>
   <si>
-    <t>&lt;a href="mailto:hmyu@ncl.edu.tw"&gt;Hsiao-ming Yu,&lt;/a&gt; Director of Special Collections Division.</t>
-  </si>
-  <si>
     <t>UCLA</t>
   </si>
   <si>
-    <t>Box 951575&lt;br&gt; Los Angeles, CA 90095-1575 USA&lt;br&gt; &lt;a href="http://www.library.ucla.edu/libraries/eastasian" target="_blank"&gt;website&lt;/a&gt;&lt;br&gt; Librarian: &lt;a href="mailto:ctsiang@library.ucla.edu"&gt;Amy Tsiang&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>V&amp;A</t>
   </si>
   <si>
-    <t>&lt;a href="mailto:b.mckillop@vam.ac.uk"&gt;Beth McKillop&lt;/a&gt;, Keeper of the Asian Department Victoria and Albert Museum Cromwell Road London, SW7 2RL, UK &lt;a href="http://www.vam.ac.uk" target="_blank"&gt;V&amp;A website</t>
-  </si>
-  <si>
     <t>XJIA</t>
   </si>
   <si>
-    <t>Institute URL OLD VALUE</t>
-  </si>
-  <si>
-    <t>Institute URL NEW VALUE</t>
-  </si>
-  <si>
     <t>www.smb.museum</t>
   </si>
   <si>
@@ -365,13 +286,7 @@
     <t>https://www.ncl.edu.tw</t>
   </si>
   <si>
-    <t>institute_url_set.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used to define and export TSV file(s) with values of Institute URL reduced to what it should be - a URL for the website of the institution. </t>
-  </si>
-  <si>
-    <t>We should save the remainder of the contact info separately in a contact sheet (outside of 4D) - for now held in the REVERSED TSV (and here)</t>
+    <t>Institute URL</t>
   </si>
 </sst>
 </file>
@@ -1260,543 +1175,431 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
     <col min="2" max="2" width="66.109375" customWidth="1"/>
-    <col min="3" max="4" width="40.109375" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="1" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" ht="110.4" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="69" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="2" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="B34" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="2" t="s">
+      <c r="B35" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="B36" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="B37" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="B38" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="B39" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B40" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="B41" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="B42" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="B44" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" ht="69" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="B45" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="B46" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="B47" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="B48" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B33" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B35" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B37" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B38" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B40" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B42" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B43" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B49" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B50" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B5" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B8" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B14" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B15" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B16" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B19" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B22" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B26" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B28" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B29" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B30" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B31" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B32" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B39" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B41" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B44" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B45" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B47" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B48" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B17" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B30" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B32" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B34" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B35" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B37" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B39" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B40" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B46" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B47" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B2" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B5" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B9" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B11" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B12" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B16" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B19" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B23" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B25" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B26" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B27" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B28" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B29" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B31" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B33" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B41" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B42" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B44" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B45" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId41"/>
